--- a/Excel/devices_preferences.xlsx
+++ b/Excel/devices_preferences.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -109,91 +109,91 @@
     <t>Latency compensation: When recording, it takes a small amount of time for the sound to be converted to digital data and written to the track. This time delay is the “recording latency” and is typically around 130 ms (0.13 seconds) for consumer level equipment. By compensating for this delay, sounds are written to the track at the correct time relative to the Timeline, and other tracks in the project. The actual amount of delay depends on the hardware and audio settings, so for accurate synchronization in multi-track recording, this setting should be calibrated as described in the Latency Test page.</t>
   </si>
   <si>
-    <t>डिव्हाइस प्राधान्ये - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
     <t>डिव्हाइस प्राधान्ये</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>यात प्रवेशः संपादन&gt; प्राधान्ये&gt; डिव्हाइस</t>
-  </si>
-  <si>
-    <t>(मॅक ऑडॅसिटी&gt; प्राधान्ये&gt; डिव्हाइस)</t>
-  </si>
-  <si>
     <t>इतर प्राधान्यांसाठी डाव्या स्तंभात क्लिक करा</t>
   </si>
   <si>
-    <t>होस्ट आणि चॅनेलसाठी डीफॉल्ट सेटिंग्ज दर्शविणार्‍या डिव्हाइसेसची प्राधान्ये प्रतिमा.</t>
-  </si>
-  <si>
-    <t>इंटरफेस</t>
-  </si>
-  <si>
-    <t>विशिष्ट होस्ट इंटरफेस निवडतो ज्याद्वारे ऑडॅसिटी आपल्या निवडलेल्या प्लेबॅक आणि रेकॉर्डिंग डिव्हाइससह संप्रेषण करते.</t>
-  </si>
-  <si>
-    <t>विंडोजः विंडोजवरील निवड खालील होस्ट ऑडिओ इंटरफेस दरम्यान आहे.</t>
-  </si>
-  <si>
-    <t>एमएमईः हे ऑडॅसिटी डीफॉल्ट आहे आणि सर्व ऑडिओ डिव्हाइससह सर्वात अनुकूल आहे.</t>
-  </si>
-  <si>
     <t>विंडोज डायरेक्टसाऊंडः संभाव्यत कमी विलंब असलेल्या एमएमईपेक्षा हे अगदी अलीकडील आहे.</t>
   </si>
   <si>
-    <t>Windows WASAPI: हे होस्ट अनुप्रयोग (जसे की ऑडॅसिटी) आणि ऑडिओ इंटरफेस ड्राइव्हर दरम्यान सर्वात अलीकडील विंडोज इंटरफेस आहे. WASAPI प्रथम अधिकृतपणे 2007 मध्ये विंडोज व्हिस्टामध्ये प्रसिद्ध झाले. खासकरुन संगणक प्लेबॅक रेकॉर्डिंगसाठी "लूपबॅक" करण्यासाठी वासा उपयुक्त आहे. हे होस्ट वापरुन 24-बिट रेकॉर्डिंग डिव्हाइस समर्थित आहेत. प्लेबॅक सहसा अनुकरण केले जाते. याचा परिणाम म्हणून, मिक्सर टूलबारमधील प्लेबॅक स्लाइडर थेट सिस्टम स्लाइडरमध्ये फेरफार करण्याऐवजी सिस्टम प्लेबॅक स्लाइडरची सद्य पातळी खाली किंवा खाली स्केल करेल.</t>
-  </si>
-  <si>
-    <t>विंडोज वर:</t>
-  </si>
-  <si>
     <t>डीफॉल्टनुसार विंडोज डायरेक्टसाऊंडमध्ये एमएमईपेक्षा थोडीशी कमी उशीर असू शकते.</t>
   </si>
   <si>
-    <t>विंडोज डायरेक्टसाऊंड किंवा विंडोज डब्ल्यूएएसपीआय निवडणे आणि विंडोज साऊंडमध्ये दोन्ही "एक्सक्लूसिव मोड" बॉक्स सक्षम केल्याने ऑडॅसिटीला रीमॅम्पलिंगशिवाय डिव्हाइसमधून ऑडिओ थेट विनंती करण्याची परवानगी मिळते.</t>
-  </si>
-  <si>
-    <t>मॅक: मॅकवर केवळ कोअर ऑडिओची निवड आहे.</t>
-  </si>
-  <si>
-    <t>लिनक्स: लिनक्स वर बहुतेकदा एकच पर्याय असतोः ALSA. इतर पर्याय ओएसएस आणि / किंवा जॅक ऑडिओ कनेक्शन किट ("जॅक" किंवा "जॅकड" म्हणून देखील ओळखले जातात) असू शकतात.</t>
-  </si>
-  <si>
     <t>प्लेबॅक</t>
   </si>
   <si>
     <t>डिव्हाइस: प्लेबॅकसाठी वापरलेले डिव्हाइस निवडते.</t>
   </si>
   <si>
-    <t>मुद्रित करणे</t>
-  </si>
-  <si>
-    <t>डिव्हाइस: रेकॉर्डिंगसाठी वापरलेले डिव्हाइस निवडते.</t>
-  </si>
-  <si>
-    <t>Windows वर, रेकॉर्डिंग डिव्हाइससाठी प्रत्येक प्रविष्टीमध्ये इनपुट प्रकार असतो (जसे की मायक्रोफोन), त्यानंतर इनपुट संबंधित ऑडिओ डिव्हाइसचे नाव असते. आपल्याकडे एकाधिक ऑडिओ डिव्हाइस असल्यास, यादीचे गटबद्ध केले जाईल जेणेकरून प्रत्येक डिव्हाइसची माहिती एकत्रित केली जाईल. निवडलेल्या डिव्हाइसचे इनपुट स्तर मिक्सर टूलबारमध्ये समायोजित केले जाऊ शकते, परंतु डिव्हाइस निवड यापुढे केले जाणार नाही.</t>
-  </si>
-  <si>
-    <t>चॅनेल: 1 (मोनो), 2 (स्टीरिओ) किंवा आपल्या आवाज डिव्हाइसच्या ड्रायव्हर्सद्वारे प्रदान केलेल्या चॅनेलची संख्या. बर्‍याच इनबिल्ट साउंड डिव्‍हाइसेसवर, विशेषत: विंडोजवर, फक्त मोनो किंवा स्टीरिओ उपलब्ध असतील. विंडोजवरील काही उपकरणांसाठी, उपरोक्त "होस्ट" मध्ये विंडोज डायरेक्टसाऊंड निवडणे कदाचित दोनपेक्षा जास्त चॅनेल रेकॉर्ड करण्यासाठी पर्याय प्रकट करू शकेल. दोनपेक्षा अधिक चॅनेल रेकॉर्ड करण्यास सक्षम असलेल्या काही डिव्हाइसवर, सर्व चॅनेल एकाच वेळी रेकॉर्ड करण्यासाठी "डिव्हाइस" ड्रॉपडाऊनमध्ये एक स्पष्ट "मल्टी" डिव्हाइस दिसू शकते.</t>
-  </si>
-  <si>
-    <t>उशीरा</t>
-  </si>
-  <si>
-    <t>बफर लांबी: एक "बफर" ऑडिओचा एक भाग आहे जो संगणकावर प्रक्रिया करण्यासाठी प्रतीक्षा करतो. डीफॉल्ट 100 मिलिसेकंद (एमएस) सेटिंगमध्ये, रेकॉर्डिंग करताना किंवा प्ले करताना ऑडिओला ऑडिओ इंटरफेसमधून प्रवास करण्यासाठी 0.1 सेकंद लागतील. हे मूल्य कमी करणे म्हणजे रेकॉर्डिंग कमी विलंब असलेल्या डिस्कवर ठेवली जाईल आणि प्लेबॅक वेगवान प्रतिसाद देऊ शकेल. तथापि, संगणकास वेगवान काम करावे लागेल जेणेकरून ते आवश्यकतेनुसार लहान भागांवर प्रक्रिया करण्यास तयार असेल. हे मूल्य खूपच कमी सेट करणे (उदाहरणार्थ 1 एमएस पर्यंत) म्हणजे संगणक कायम ठेवण्यास सक्षम होणार नाही आणि रेकॉर्डिंग किंवा प्लेबॅक देखील कार्य करणार नाही. बहुतेक संगणकांसाठी 100 एमएस ही एक सुरक्षित सेटिंग आहे.</t>
-  </si>
-  <si>
-    <t>जर आपण ऑडॅसिटी डीफॉल्ट एमएमई होस्ट वापरत असाल तर 20 मि.मी. किंवा 30 एमएस च्या खाली सेटिंग्‍जमुळे आपणास क्‍लेकी प्लेबॅक मिळेल.</t>
-  </si>
-  <si>
-    <t>उशीरा भरपाई: ध्वनी रेकॉर्डिंग करताना ध्वनी डिजिटल डेटामध्ये रुपांतरित होण्यासाठी आणि ट्रॅकवर लिहिण्यासाठी थोडा वेळ लागतो. यावेळी विलंब म्हणजे “रेकॉर्डिंग विलंब” आणि ग्राहक पातळीवरील उपकरणासाठी साधारणतः १ 130० एमएस (०.०3 सेकंद) आहे. या विलंबाची भरपाई करून, टाइमलाइनशी संबंधित योग्य वेळी ट्रॅकवर आणि प्रकल्पातील इतर ट्रॅकवर नाद लिहिलेले आहेत. उशीराची वास्तविक मात्रा हार्डवेअर आणि ऑडिओ सेटिंग्जवर अवलंबून असते, म्हणूनच मल्टी-ट्रॅक रेकॉर्डिंगमध्ये अचूक सिंक्रोनाइझेशनसाठी, लेटन्सी टेस्ट पृष्ठात वर्णन केल्यानुसार ही सेटिंग कॅलिब्रेट केली जावी.</t>
+    <t>डिव्हाइस प्राधान्ये - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>द्वारा प्रवेश : संपादन&gt; प्राधान्ये&gt; डिव्हाइस</t>
+  </si>
+  <si>
+    <t>(मॅक वर ओड्यासिटी&gt; प्राधान्ये&gt; डिव्हाइस)</t>
+  </si>
+  <si>
+    <t>होस्ट आणि वाहिनीसाठी डीफॉल्ट सेटिंग्ज दर्शविणार्‍या डिव्हाइसेसची प्राधान्ये प्रतिमा.</t>
+  </si>
+  <si>
+    <t>मुखपृष्ठ</t>
+  </si>
+  <si>
+    <t>विशिष्ट होस्ट मुखपृष्ठ निवडतो ज्याद्वारे ओड्यासिटी आपल्या निवडलेल्या प्लेबॅक आणि ध्वनिमुद्रण डिव्हाइससह संप्रेषण करते.</t>
+  </si>
+  <si>
+    <t>विंडोजः विंडोजवरील निवड खालील होस्ट ध्वनी मुखपृष्ठ दरम्यान आहे.</t>
+  </si>
+  <si>
+    <t>एमएमईः हे ओड्यासिटी डीफॉल्ट आहे आणि सर्व ध्वनी डिव्हाइससह सर्वात अनुकूल आहे.</t>
+  </si>
+  <si>
+    <t>विंडोज WASAPI : हे होस्ट अनुप्रयोग (जसे की ओड्यासिटी) आणि ध्वनी मुखपृष्ठ ड्राइव्हर दरम्यान सर्वात अलीकडील विंडोज मुखपृष्ठ आहे. WASAPI प्रथम अधिकृतपणे २००७ मध्ये विंडोज व्हिस्टामध्ये प्रसिद्ध झाले. खासकरुन संगणक प्लेबॅक ध्वनिमुद्रणासाठी "लूपबॅक" करण्यासाठी वासा उपयुक्त आहे. हे होस्ट वापरुन 24-बिट ध्वनिमुद्रण डिव्हाइस समर्थित आहेत. प्लेबॅक सहसा अनुकरण केले जाते. याचा परिणाम म्हणून, मिक्सर टूलबारमधील प्लेबॅक स्लाइडर थेट सिस्टम स्लाइडरमध्ये फेरफार करण्याऐवजी सिस्टम प्लेबॅक स्लाइडरची सद्य पातळी खाली किंवा खाली स्केल करेल.</t>
+  </si>
+  <si>
+    <t>विंडोज वर :</t>
+  </si>
+  <si>
+    <t>विंडोज डायरेक्टसाऊंड किंवा विंडोज डब्ल्यूएएसपीआय निवडणे आणि विंडोज साऊंडमध्ये दोन्ही "अनन्य मोड" बॉक्स सक्षम केल्याने ओड्यासिटीला रीमॅम्पलिंगशिवाय डिव्हाइसमधून ध्वनी थेट विनंती करण्याची परवानगी मिळते.</t>
+  </si>
+  <si>
+    <t>मॅक: मॅकवर केवळ कोअर ध्वनीची निवड आहे.</t>
+  </si>
+  <si>
+    <t>लिनक्स : लिनक्स वर बहुतेकदा एकच पर्याय असतोः ALSA. इतर पर्याय ओएसएस आणि / किंवा जॅक ध्वनी कनेक्शन किट ("जॅक" किंवा "जॅकड" म्हणून देखील ओळखले जातात) असू शकतात.</t>
+  </si>
+  <si>
+    <t>ध्वनिमुद्रण</t>
+  </si>
+  <si>
+    <t>डिव्हाइस: ध्वनिमुद्रणसाठी वापरलेले डिव्हाइस निवडते.</t>
+  </si>
+  <si>
+    <t>विंडोज वर, ध्वनिमुद्रण डिव्हाइससाठी प्रत्येक प्रविष्टीमध्ये इनपुट प्रकार असतो (जसे की मायक्रोफोन), त्यानंतर इनपुट संबंधित ध्वनी डिव्हाइसचे नाव असते. आपल्याकडे एकाधिक ध्वनी डिव्हाइस असल्यास, यादीचे गटबद्ध केले जाईल जेणेकरून प्रत्येक डिव्हाइसची माहिती एकत्रित केली जाईल. निवडलेल्या डिव्हाइसचे इनपुट स्तर मिक्सर टूलबारमध्ये समायोजित केले जाऊ शकते, परंतु डिव्हाइस निवड यापुढे केले जाणार नाही.</t>
+  </si>
+  <si>
+    <t>वाहिनी : १ (मोनो), २ (स्टीरिओ) किंवा आपल्या आवाज डिव्हाइसच्या ड्रायव्हर्सद्वारे प्रदान केलेल्या वाहिनीची संख्या. बर्‍याच इनबिल्ट साउंड डिव्‍हाइसेसवर, विशेषत: विंडोजवर, फक्त मोनो किंवा स्टीरिओ उपलब्ध असतील. विंडोजवरील काही उपकरणांसाठी, उपरोक्त "होस्ट" मध्ये विंडोज डायरेक्टसाऊंड निवडणे कदाचित दोनपेक्षा जास्त वाहिनी ध्वनिमुद्रण करण्यासाठी पर्याय प्रकट करू शकेल. दोनपेक्षा अधिक वाहिनी ध्वनिमुद्रण करण्यास सक्षम असलेल्या काही डिव्हाइसवर, सर्व वाहिनी एकाच वेळी ध्वनिमुद्रण करण्यासाठी "डिव्हाइस" ड्रॉपडाऊनमध्ये एक स्पष्ट "मल्टी" डिव्हाइस दिसू शकते.</t>
+  </si>
+  <si>
+    <t>प्रलंबित</t>
+  </si>
+  <si>
+    <t>बफर लांबी : एक "बफर" ध्वनीचा एक भाग आहे जो संगणकावर प्रक्रिया करण्यासाठी प्रतीक्षा करतो. डीफॉल्ट १०० मिलिसेकंद (एमएस) सेटिंगमध्ये, ध्वनिमुद्रण करताना किंवा प्ले करताना ध्वनीला ध्वनी मुखपृष्ठामधून प्रवास करण्यासाठी ०.१ सेकंद लागतील. हे मूल्य कमी करणे म्हणजे मुखपृष्ठ कमी विलंब असलेल्या डिस्कवर ठेवली जाईल आणि प्लेबॅक वेगवान प्रतिसाद देऊ शकेल. तथापि, संगणकास वेगवान काम करावे लागेल जेणेकरून ते आवश्यकतेनुसार लहान भागांवर प्रक्रिया करण्यास तयार असेल. हे मूल्य खूपच कमी सेट करणे (उदाहरणार्थ १ एमएस पर्यंत) म्हणजे संगणक कायम ठेवण्यास सक्षम होणार नाही आणि ध्वनिमुद्रण किंवा प्लेबॅक देखील कार्य करणार नाही. बहुतेक संगणकांसाठी 100 एमएस ही एक सुरक्षित सेटिंग आहे.</t>
+  </si>
+  <si>
+    <t>जर आपण ओड्यासिटी डीफॉल्ट एमएमई होस्ट वापरत असाल तर २० मि.मी. किंवा ३० एमएस च्या खाली सेटिंग्‍जमुळे आपणास क्‍लेकी प्लेबॅक मिळेल.</t>
+  </si>
+  <si>
+    <t>प्रलंबित भरपाई : ध्वनी ध्वनिमुद्रण करताना ध्वनी डिजिटल डेटामध्ये रुपांतरित होण्यासाठी आणि गीतपट्टावर लिहिण्यासाठी थोडा वेळ लागतो. यावेळी विलंब म्हणजे “ध्वनिमुद्रण विलंब” आणि ग्राहक पातळीवरील उपकरणासाठी साधारणतः १ 130० एमएस (०.०3 सेकंद) आहे. या विलंबाची भरपाई करून, टाइमलाइनशी संबंधित योग्य वेळी ट्रॅकवर आणि प्रकल्पातील इतर गीतपट्टावर नाद लिहिलेले आहेत. उशीराची वास्तविक मात्रा हार्डवेअर आणि ध्वनी सेटिंग्जवर अवलंबून असते, म्हणूनच अनेक-गीतपट्टावर ध्वनिमुद्रणमध्ये अचूक सिंक्रोनाइझेशनसाठी, प्रलंबित टेस्ट पृष्ठात वर्णन केल्यानुसार ही सेटिंग कॅलिब्रेट केली जावी.</t>
   </si>
 </sst>
 </file>
@@ -252,11 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,9 +554,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -573,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -584,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -595,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -606,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -617,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -628,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -639,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -650,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -661,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -672,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -683,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -694,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -705,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -715,8 +722,8 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -727,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -738,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -749,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -760,7 +767,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -771,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -782,7 +789,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -793,7 +800,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -825,7 +832,7 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -836,7 +843,7 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -858,7 +865,7 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -880,11 +887,12 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>